--- a/StructureDefinition-profile-Composition.xlsx
+++ b/StructureDefinition-profile-Composition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2373" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2564" uniqueCount="483">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.6515217-06:00</t>
+    <t>2026-02-09T22:05:43.0374576-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -434,33 +434,136 @@
     <t>Composition.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Composition.extension:url</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Composition.url|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Composition.url from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>An absolute URI that is used to identify this Composition when it is referenced in a specification, model, design or an instance; also called its canonical identifier. This SHOULD be globally unique and SHOULD be a literal address at which an authoritative instance of this Composition is (or will be) published. This URL can be the target of a canonical reference. It SHALL remain the same when the Composition is stored on different servers.</t>
+  </si>
+  <si>
+    <t>Element `Composition.url` is will have a context of Composition based on following the parent source element upwards and mapping to `Composition`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Composition.extension:version</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Composition.version|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Composition.version from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>An explicitly assigned identifer of a variation of the content in the Composition.</t>
+  </si>
+  <si>
+    <t>Element `Composition.version` is will have a context of Composition based on following the parent source element upwards and mapping to `Composition`.</t>
+  </si>
+  <si>
+    <t>Composition.extension:useContext</t>
+  </si>
+  <si>
+    <t>useContext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Composition.useContext|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Composition.useContext from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The content was developed with a focus and intent of supporting the contexts that are listed. These contexts may be general categories (gender, age, ...) or may be references to specific programs (insurance plans, studies, ...) and may be used to assist with indexing and searching for appropriate Composition instances.</t>
+  </si>
+  <si>
+    <t>Element `Composition.useContext` is will have a context of Composition based on following the parent source element upwards and mapping to `Composition`.</t>
+  </si>
+  <si>
+    <t>Composition.extension:name</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Composition.name|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Composition.name from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A natural language name identifying the {{title}}. This name should be usable as an identifier for the module by machine processing applications such as code generation.</t>
+  </si>
+  <si>
+    <t>Element `Composition.name` is will have a context of Composition based on following the parent source element upwards and mapping to `Composition`.</t>
+  </si>
+  <si>
+    <t>Composition.extension:note</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Composition.note|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Composition.note from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>For any additional notes.</t>
+  </si>
+  <si>
+    <t>Element `Composition.note` is will have a context of Composition based on following the parent source element upwards and mapping to `Composition`.</t>
+  </si>
+  <si>
+    <t>Composition.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Composition.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -468,6 +571,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -564,20 +670,13 @@
     <t>Composition.status.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Composition.status.extension:status</t>
+  </si>
+  <si>
+    <t>status</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Composition.status|0.0.1-snapshot-3}
@@ -587,8 +686,8 @@
     <t>Cross-version extension for Composition.status from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
+    <t>Note that the target element context `Composition.status` is a modifier element, so this extension does not need to be defined as a modifier.
+Element `Composition.status` is mapped to FHIR R4 element `Composition.status`.</t>
   </si>
   <si>
     <t>Composition.status.value</t>
@@ -885,6 +984,9 @@
     <t>Composition.attester.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
@@ -935,11 +1037,20 @@
     <t>Composition.attester.mode.extension</t>
   </si>
   <si>
+    <t>Composition.attester.mode.extension:mode</t>
+  </si>
+  <si>
+    <t>mode</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Composition.attester.mode|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
     <t>Cross-version extension for Composition.attester.mode from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Composition.attester.mode` is mapped to FHIR R4 element `Composition.attester.mode`.</t>
   </si>
   <si>
     <t>Composition.attester.mode.value</t>
@@ -1702,7 +1813,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO63"/>
+  <dimension ref="A1:AO68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1711,9 +1822,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="34.19921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.55078125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="34.19921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="10.0078125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -2704,7 +2815,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2723,17 +2834,15 @@
         <v>78</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>140</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>78</v>
@@ -2770,16 +2879,14 @@
         <v>78</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>141</v>
@@ -2800,7 +2907,7 @@
         <v>78</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>78</v>
@@ -2817,43 +2924,43 @@
         <v>143</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>78</v>
       </c>
@@ -2901,7 +3008,7 @@
         <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -2910,7 +3017,7 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>78</v>
+        <v>149</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>142</v>
@@ -2919,7 +3026,7 @@
         <v>78</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>78</v>
@@ -2933,12 +3040,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>78</v>
       </c>
@@ -2956,19 +3065,19 @@
         <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3018,65 +3127,67 @@
         <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>78</v>
+        <v>149</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>157</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>111</v>
+        <v>158</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>159</v>
@@ -3087,9 +3198,7 @@
       <c r="N12" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="O12" t="s" s="2">
-        <v>162</v>
-      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>78</v>
       </c>
@@ -3113,13 +3222,13 @@
         <v>78</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>163</v>
+        <v>78</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>164</v>
+        <v>78</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>165</v>
+        <v>78</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>78</v>
@@ -3137,44 +3246,46 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>78</v>
+        <v>149</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>170</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="D13" t="s" s="2">
         <v>78</v>
       </c>
@@ -3195,15 +3306,17 @@
         <v>78</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>78</v>
@@ -3252,19 +3365,19 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>78</v>
+        <v>149</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>78</v>
@@ -3284,18 +3397,20 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="D14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>80</v>
@@ -3310,15 +3425,17 @@
         <v>78</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>78</v>
@@ -3355,17 +3472,19 @@
         <v>78</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AC14" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>181</v>
+        <v>141</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3374,7 +3493,7 @@
         <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>78</v>
+        <v>149</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>142</v>
@@ -3397,44 +3516,46 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>182</v>
+        <v>136</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O15" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="O15" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>78</v>
       </c>
@@ -3482,7 +3603,7 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3491,7 +3612,7 @@
         <v>80</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>184</v>
+        <v>78</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>142</v>
@@ -3500,7 +3621,7 @@
         <v>78</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>78</v>
@@ -3514,10 +3635,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3537,18 +3658,20 @@
         <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>78</v>
@@ -3597,7 +3720,7 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3609,30 +3732,30 @@
         <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>78</v>
+        <v>186</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>78</v>
+        <v>189</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>78</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3649,25 +3772,25 @@
         <v>78</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>189</v>
+        <v>111</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>78</v>
@@ -3692,13 +3815,13 @@
         <v>78</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>115</v>
+        <v>196</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>78</v>
@@ -3716,7 +3839,7 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>91</v>
@@ -3731,27 +3854,27 @@
         <v>103</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3762,7 +3885,7 @@
         <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>78</v>
@@ -3771,23 +3894,19 @@
         <v>78</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>78</v>
       </c>
@@ -3811,66 +3930,66 @@
         <v>78</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>206</v>
+        <v>78</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>207</v>
+        <v>78</v>
       </c>
       <c r="Z18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AA18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>201</v>
-      </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>209</v>
+        <v>78</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>210</v>
+        <v>78</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>211</v>
+        <v>78</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>200</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3878,10 +3997,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>78</v>
@@ -3890,23 +4009,19 @@
         <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>213</v>
+        <v>136</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>214</v>
+        <v>137</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>78</v>
       </c>
@@ -3942,62 +4057,62 @@
         <v>78</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="AC19" s="2"/>
       <c r="AD19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>218</v>
+        <v>78</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>220</v>
+        <v>78</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>221</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="D20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>91</v>
@@ -4009,21 +4124,21 @@
         <v>78</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>78</v>
       </c>
@@ -4071,42 +4186,42 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>78</v>
+        <v>149</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>227</v>
+        <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>228</v>
+        <v>78</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>229</v>
+        <v>78</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>230</v>
+        <v>78</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>231</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4114,7 +4229,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>91</v>
@@ -4126,23 +4241,19 @@
         <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>78</v>
       </c>
@@ -4190,10 +4301,10 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>91</v>
@@ -4202,30 +4313,30 @@
         <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>238</v>
+        <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>239</v>
+        <v>78</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>240</v>
+        <v>78</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>241</v>
+        <v>78</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>242</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4236,7 +4347,7 @@
         <v>91</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>78</v>
@@ -4248,17 +4359,19 @@
         <v>92</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="O22" t="s" s="2">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>78</v>
@@ -4283,13 +4396,13 @@
         <v>78</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>78</v>
+        <v>225</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>78</v>
+        <v>226</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>78</v>
@@ -4307,13 +4420,13 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>78</v>
@@ -4322,27 +4435,27 @@
         <v>103</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>252</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4350,10 +4463,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>78</v>
@@ -4365,18 +4478,20 @@
         <v>92</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>172</v>
+        <v>220</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="O23" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>78</v>
       </c>
@@ -4400,13 +4515,13 @@
         <v>78</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>78</v>
+        <v>237</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>78</v>
+        <v>238</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>78</v>
+        <v>239</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>78</v>
@@ -4424,13 +4539,13 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>78</v>
@@ -4439,27 +4554,27 @@
         <v>103</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>78</v>
+        <v>240</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>258</v>
+        <v>201</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>78</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4482,18 +4597,20 @@
         <v>92</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>111</v>
+        <v>244</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>78</v>
       </c>
@@ -4517,13 +4634,13 @@
         <v>78</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>163</v>
+        <v>78</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>264</v>
+        <v>78</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>265</v>
+        <v>78</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>78</v>
@@ -4541,7 +4658,7 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4559,24 +4676,24 @@
         <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>78</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4587,7 +4704,7 @@
         <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>78</v>
@@ -4596,22 +4713,20 @@
         <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>78</v>
@@ -4660,13 +4775,13 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>78</v>
@@ -4675,27 +4790,27 @@
         <v>103</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>78</v>
+        <v>258</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>78</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4703,7 +4818,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>91</v>
@@ -4715,19 +4830,23 @@
         <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>172</v>
+        <v>264</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>78</v>
       </c>
@@ -4775,10 +4894,10 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>175</v>
+        <v>263</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>91</v>
@@ -4787,38 +4906,38 @@
         <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>78</v>
+        <v>269</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>168</v>
+        <v>270</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>78</v>
+        <v>271</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>78</v>
+        <v>272</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>78</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>80</v>
@@ -4830,21 +4949,21 @@
         <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>137</v>
+        <v>275</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>138</v>
+        <v>276</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>78</v>
       </c>
@@ -4892,10 +5011,10 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>181</v>
+        <v>274</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>80</v>
@@ -4904,66 +5023,64 @@
         <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>78</v>
+        <v>279</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>168</v>
+        <v>280</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>78</v>
+        <v>281</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>78</v>
+        <v>282</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>78</v>
+        <v>283</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>283</v>
+        <v>78</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>137</v>
+        <v>205</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>78</v>
       </c>
@@ -5011,31 +5128,31 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>134</v>
+        <v>288</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>78</v>
+        <v>289</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>78</v>
+        <v>290</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>78</v>
@@ -5043,10 +5160,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5054,7 +5171,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>91</v>
@@ -5066,21 +5183,21 @@
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>111</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>78</v>
       </c>
@@ -5104,34 +5221,34 @@
         <v>78</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="Y29" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF29" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="Z29" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>287</v>
-      </c>
       <c r="AG29" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>91</v>
@@ -5146,13 +5263,13 @@
         <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>78</v>
+        <v>298</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>78</v>
@@ -5160,10 +5277,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5174,7 +5291,7 @@
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>78</v>
@@ -5186,16 +5303,20 @@
         <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>172</v>
+        <v>300</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>173</v>
+        <v>301</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>78</v>
       </c>
@@ -5243,31 +5364,31 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>175</v>
+        <v>299</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>78</v>
+        <v>305</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>78</v>
+        <v>306</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>78</v>
+        <v>307</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>78</v>
@@ -5275,10 +5396,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5286,11 +5407,11 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G31" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G31" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="H31" t="s" s="2">
         <v>78</v>
       </c>
@@ -5301,13 +5422,13 @@
         <v>78</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>137</v>
+        <v>205</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>177</v>
+        <v>309</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>178</v>
+        <v>310</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5346,35 +5467,37 @@
         <v>78</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AC31" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>78</v>
@@ -5388,21 +5511,21 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>78</v>
@@ -5414,15 +5537,17 @@
         <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>297</v>
+        <v>136</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>78</v>
@@ -5471,7 +5596,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5480,7 +5605,7 @@
         <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>184</v>
+        <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>142</v>
@@ -5489,7 +5614,7 @@
         <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>78</v>
@@ -5503,42 +5628,46 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>78</v>
+        <v>315</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>186</v>
+        <v>316</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>78</v>
       </c>
@@ -5586,25 +5715,25 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>187</v>
+        <v>318</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>78</v>
@@ -5618,10 +5747,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5629,7 +5758,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>91</v>
@@ -5644,17 +5773,17 @@
         <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>233</v>
+        <v>111</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>78</v>
@@ -5679,13 +5808,13 @@
         <v>78</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>78</v>
+        <v>196</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>78</v>
+        <v>323</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>78</v>
+        <v>324</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>78</v>
@@ -5703,10 +5832,10 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>91</v>
@@ -5721,10 +5850,10 @@
         <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>304</v>
+        <v>325</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>305</v>
+        <v>326</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>78</v>
@@ -5735,10 +5864,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>306</v>
+        <v>327</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>306</v>
+        <v>327</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5761,18 +5890,16 @@
         <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>307</v>
+        <v>205</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>308</v>
+        <v>206</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>309</v>
+        <v>207</v>
       </c>
       <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>310</v>
-      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>78</v>
       </c>
@@ -5820,7 +5947,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>306</v>
+        <v>208</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5832,30 +5959,30 @@
         <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>311</v>
+        <v>78</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>312</v>
+        <v>78</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>313</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5863,10 +5990,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>78</v>
@@ -5875,23 +6002,19 @@
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>315</v>
+        <v>136</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>316</v>
+        <v>137</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>78</v>
       </c>
@@ -5927,43 +6050,41 @@
         <v>78</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="AC36" s="2"/>
       <c r="AD36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>314</v>
+        <v>210</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>320</v>
+        <v>78</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>321</v>
+        <v>78</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>322</v>
+        <v>78</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>78</v>
@@ -5971,21 +6092,23 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="D37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>78</v>
@@ -5997,16 +6120,16 @@
         <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>269</v>
+        <v>331</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6056,7 +6179,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>323</v>
+        <v>210</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6065,22 +6188,22 @@
         <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>78</v>
+        <v>149</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>327</v>
+        <v>78</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>328</v>
+        <v>78</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>329</v>
+        <v>78</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>78</v>
@@ -6088,10 +6211,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6114,13 +6237,13 @@
         <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>278</v>
+        <v>217</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>279</v>
+        <v>217</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6171,7 +6294,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>175</v>
+        <v>218</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6189,7 +6312,7 @@
         <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>78</v>
@@ -6203,21 +6326,21 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>78</v>
@@ -6229,18 +6352,18 @@
         <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>137</v>
+        <v>264</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>138</v>
+        <v>336</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>337</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>78</v>
       </c>
@@ -6288,28 +6411,28 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>181</v>
+        <v>335</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>168</v>
+        <v>339</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>78</v>
+        <v>340</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>78</v>
@@ -6320,45 +6443,43 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>283</v>
+        <v>78</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>137</v>
+        <v>342</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>284</v>
+        <v>343</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>146</v>
+        <v>345</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>78</v>
@@ -6407,42 +6528,42 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>286</v>
+        <v>341</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>134</v>
+        <v>346</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>78</v>
+        <v>347</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>78</v>
+        <v>348</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6450,7 +6571,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>91</v>
@@ -6462,21 +6583,23 @@
         <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>111</v>
+        <v>350</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="O41" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>78</v>
       </c>
@@ -6500,13 +6623,13 @@
         <v>78</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>163</v>
+        <v>78</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>337</v>
+        <v>78</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>338</v>
+        <v>78</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>78</v>
@@ -6524,10 +6647,10 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>91</v>
@@ -6542,13 +6665,13 @@
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>78</v>
@@ -6556,10 +6679,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6567,10 +6690,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>78</v>
@@ -6582,15 +6705,17 @@
         <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>343</v>
+        <v>300</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>78</v>
@@ -6639,13 +6764,13 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>78</v>
@@ -6657,13 +6782,13 @@
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>78</v>
@@ -6671,10 +6796,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6685,7 +6810,7 @@
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>78</v>
@@ -6694,23 +6819,19 @@
         <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>269</v>
+        <v>205</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>350</v>
+        <v>309</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>353</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>78</v>
       </c>
@@ -6758,31 +6879,31 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>349</v>
+        <v>208</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>354</v>
+        <v>201</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>355</v>
+        <v>78</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>356</v>
+        <v>78</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>78</v>
@@ -6790,21 +6911,21 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>78</v>
@@ -6816,15 +6937,17 @@
         <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>78</v>
@@ -6873,25 +6996,25 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>78</v>
@@ -6905,14 +7028,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>136</v>
+        <v>315</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6925,24 +7048,26 @@
         <v>78</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>138</v>
+        <v>316</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O45" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>78</v>
       </c>
@@ -6990,7 +7115,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>181</v>
+        <v>318</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7008,7 +7133,7 @@
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>78</v>
@@ -7022,46 +7147,44 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>283</v>
+        <v>78</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>284</v>
+        <v>369</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>285</v>
+        <v>370</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>78</v>
       </c>
@@ -7085,13 +7208,13 @@
         <v>78</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>78</v>
+        <v>196</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>78</v>
+        <v>372</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>78</v>
+        <v>373</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>78</v>
@@ -7109,31 +7232,31 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>286</v>
+        <v>368</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>134</v>
+        <v>374</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>78</v>
+        <v>375</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>78</v>
+        <v>376</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>78</v>
@@ -7141,10 +7264,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7152,10 +7275,10 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>78</v>
@@ -7164,20 +7287,18 @@
         <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>189</v>
+        <v>378</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>78</v>
@@ -7202,13 +7323,13 @@
         <v>78</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>206</v>
+        <v>78</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>364</v>
+        <v>78</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>365</v>
+        <v>78</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>78</v>
@@ -7226,13 +7347,13 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>78</v>
@@ -7244,13 +7365,13 @@
         <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>198</v>
+        <v>381</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>198</v>
+        <v>382</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>78</v>
@@ -7258,10 +7379,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7272,7 +7393,7 @@
         <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>78</v>
@@ -7284,16 +7405,20 @@
         <v>92</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>368</v>
+        <v>300</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+        <v>386</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>78</v>
       </c>
@@ -7341,13 +7466,13 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>78</v>
@@ -7359,13 +7484,13 @@
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>240</v>
+        <v>389</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>240</v>
+        <v>390</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>371</v>
+        <v>391</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>78</v>
@@ -7373,10 +7498,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7387,7 +7512,7 @@
         <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>78</v>
@@ -7396,16 +7521,16 @@
         <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>373</v>
+        <v>309</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>374</v>
+        <v>310</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7456,28 +7581,28 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>372</v>
+        <v>208</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>375</v>
+        <v>201</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>78</v>
@@ -7488,14 +7613,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7514,15 +7639,17 @@
         <v>78</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>269</v>
+        <v>136</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>377</v>
+        <v>312</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>78</v>
@@ -7571,7 +7698,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>376</v>
+        <v>210</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7583,16 +7710,16 @@
         <v>78</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>379</v>
+        <v>142</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>380</v>
+        <v>201</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>381</v>
+        <v>78</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>78</v>
@@ -7603,42 +7730,46 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>78</v>
+        <v>315</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>78</v>
       </c>
@@ -7686,25 +7817,25 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>175</v>
+        <v>318</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>78</v>
@@ -7718,14 +7849,14 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7741,19 +7872,19 @@
         <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>137</v>
+        <v>220</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>138</v>
+        <v>396</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>281</v>
+        <v>397</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>140</v>
+        <v>398</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7779,13 +7910,13 @@
         <v>78</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>78</v>
+        <v>237</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>78</v>
+        <v>399</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>78</v>
+        <v>400</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>78</v>
@@ -7803,7 +7934,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>181</v>
+        <v>395</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -7815,19 +7946,19 @@
         <v>78</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>168</v>
+        <v>229</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>78</v>
+        <v>229</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>78</v>
+        <v>401</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>78</v>
@@ -7835,46 +7966,42 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>283</v>
+        <v>78</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>137</v>
+        <v>403</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>284</v>
+        <v>404</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>78</v>
       </c>
@@ -7922,31 +8049,31 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>286</v>
+        <v>402</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>134</v>
+        <v>271</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>78</v>
+        <v>271</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>78</v>
+        <v>406</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>78</v>
@@ -7954,21 +8081,21 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>386</v>
+        <v>78</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>78</v>
@@ -7977,23 +8104,19 @@
         <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>172</v>
+        <v>244</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>387</v>
+        <v>408</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>390</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>78</v>
       </c>
@@ -8041,13 +8164,13 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>78</v>
@@ -8059,10 +8182,10 @@
         <v>78</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>257</v>
+        <v>410</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>258</v>
+        <v>201</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>78</v>
@@ -8073,10 +8196,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8087,7 +8210,7 @@
         <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>78</v>
@@ -8099,20 +8222,16 @@
         <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>189</v>
+        <v>300</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>392</v>
+        <v>412</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>78</v>
       </c>
@@ -8136,13 +8255,13 @@
         <v>78</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>206</v>
+        <v>78</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>396</v>
+        <v>78</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>397</v>
+        <v>78</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>78</v>
@@ -8160,28 +8279,28 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>103</v>
+        <v>414</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>197</v>
+        <v>415</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>198</v>
+        <v>416</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>78</v>
@@ -8192,10 +8311,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8206,7 +8325,7 @@
         <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>78</v>
@@ -8218,18 +8337,16 @@
         <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>399</v>
+        <v>309</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>400</v>
+        <v>310</v>
       </c>
       <c r="N56" s="2"/>
-      <c r="O56" t="s" s="2">
-        <v>247</v>
-      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>78</v>
       </c>
@@ -8277,53 +8394,53 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>398</v>
+        <v>208</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>249</v>
+        <v>201</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>250</v>
+        <v>78</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>252</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>78</v>
@@ -8335,16 +8452,16 @@
         <v>78</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>213</v>
+        <v>136</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>402</v>
+        <v>312</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>403</v>
+        <v>313</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>404</v>
+        <v>178</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8394,28 +8511,28 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>401</v>
+        <v>210</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>405</v>
+        <v>78</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>78</v>
@@ -8426,44 +8543,46 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>78</v>
+        <v>315</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>407</v>
+        <v>316</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>408</v>
+        <v>317</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="O58" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>78</v>
       </c>
@@ -8511,28 +8630,28 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>406</v>
+        <v>318</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>410</v>
+        <v>78</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>411</v>
+        <v>134</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>411</v>
+        <v>78</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>78</v>
@@ -8543,14 +8662,14 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>78</v>
+        <v>421</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8569,19 +8688,19 @@
         <v>78</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>111</v>
+        <v>205</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>78</v>
@@ -8606,13 +8725,13 @@
         <v>78</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>163</v>
+        <v>78</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>417</v>
+        <v>78</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>418</v>
+        <v>78</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>78</v>
@@ -8630,7 +8749,7 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -8648,24 +8767,24 @@
         <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>419</v>
+        <v>288</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>168</v>
+        <v>289</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>200</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8688,19 +8807,19 @@
         <v>78</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>78</v>
@@ -8725,31 +8844,31 @@
         <v>78</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>115</v>
+        <v>237</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="Z60" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF60" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -8767,10 +8886,10 @@
         <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>427</v>
+        <v>228</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>168</v>
+        <v>229</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>78</v>
@@ -8781,10 +8900,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8807,18 +8926,18 @@
         <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>213</v>
+        <v>275</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="O61" s="2"/>
+        <v>435</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>78</v>
       </c>
@@ -8866,7 +8985,7 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -8875,7 +8994,7 @@
         <v>80</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>432</v>
+        <v>78</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>103</v>
@@ -8884,24 +9003,24 @@
         <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>433</v>
+        <v>280</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>434</v>
+        <v>281</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>78</v>
+        <v>283</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8924,20 +9043,18 @@
         <v>78</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>189</v>
+        <v>244</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="O62" t="s" s="2">
         <v>439</v>
       </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>78</v>
       </c>
@@ -8961,13 +9078,13 @@
         <v>78</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>440</v>
+        <v>78</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>441</v>
+        <v>78</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>78</v>
@@ -8985,7 +9102,7 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -8994,7 +9111,7 @@
         <v>91</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>432</v>
+        <v>78</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>103</v>
@@ -9003,10 +9120,10 @@
         <v>78</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>442</v>
+        <v>78</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>168</v>
+        <v>440</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>78</v>
@@ -9017,10 +9134,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9031,7 +9148,7 @@
         <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>78</v>
@@ -9043,16 +9160,16 @@
         <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="N63" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9102,16 +9219,16 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>410</v>
+        <v>445</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>103</v>
@@ -9120,15 +9237,606 @@
         <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>380</v>
+        <v>446</v>
       </c>
       <c r="AM63" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="AN63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO63" t="s" s="2">
+      <c r="B64" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="P64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="P65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="O66" s="2"/>
+      <c r="P66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="P67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="O68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO68" t="s" s="2">
         <v>78</v>
       </c>
     </row>

--- a/StructureDefinition-profile-Composition.xlsx
+++ b/StructureDefinition-profile-Composition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2564" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2527" uniqueCount="490">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.0374576-06:00</t>
+    <t>2026-02-17T14:42:26.7678719-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -474,7 +474,7 @@
     <t>An absolute URI that is used to identify this Composition when it is referenced in a specification, model, design or an instance; also called its canonical identifier. This SHOULD be globally unique and SHOULD be a literal address at which an authoritative instance of this Composition is (or will be) published. This URL can be the target of a canonical reference. It SHALL remain the same when the Composition is stored on different servers.</t>
   </si>
   <si>
-    <t>Element `Composition.url` is will have a context of Composition based on following the parent source element upwards and mapping to `Composition`.</t>
+    <t>Element `Composition.url` has a context of Composition based on following the parent source element upwards and mapping to `Composition`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -497,7 +497,7 @@
     <t>An explicitly assigned identifer of a variation of the content in the Composition.</t>
   </si>
   <si>
-    <t>Element `Composition.version` is will have a context of Composition based on following the parent source element upwards and mapping to `Composition`.</t>
+    <t>Element `Composition.version` has a context of Composition based on following the parent source element upwards and mapping to `Composition`.</t>
   </si>
   <si>
     <t>Composition.extension:useContext</t>
@@ -516,7 +516,7 @@
     <t>The content was developed with a focus and intent of supporting the contexts that are listed. These contexts may be general categories (gender, age, ...) or may be references to specific programs (insurance plans, studies, ...) and may be used to assist with indexing and searching for appropriate Composition instances.</t>
   </si>
   <si>
-    <t>Element `Composition.useContext` is will have a context of Composition based on following the parent source element upwards and mapping to `Composition`.</t>
+    <t>Element `Composition.useContext` has a context of Composition based on following the parent source element upwards and mapping to `Composition`.</t>
   </si>
   <si>
     <t>Composition.extension:name</t>
@@ -535,7 +535,7 @@
     <t>A natural language name identifying the {{title}}. This name should be usable as an identifier for the module by machine processing applications such as code generation.</t>
   </si>
   <si>
-    <t>Element `Composition.name` is will have a context of Composition based on following the parent source element upwards and mapping to `Composition`.</t>
+    <t>Element `Composition.name` has a context of Composition based on following the parent source element upwards and mapping to `Composition`.</t>
   </si>
   <si>
     <t>Composition.extension:note</t>
@@ -554,7 +554,7 @@
     <t>For any additional notes.</t>
   </si>
   <si>
-    <t>Element `Composition.note` is will have a context of Composition based on following the parent source element upwards and mapping to `Composition`.</t>
+    <t>Element `Composition.note` has a context of Composition based on following the parent source element upwards and mapping to `Composition`.</t>
   </si>
   <si>
     <t>Composition.modifierExtension</t>
@@ -687,7 +687,7 @@
   </si>
   <si>
     <t>Note that the target element context `Composition.status` is a modifier element, so this extension does not need to be defined as a modifier.
-Element `Composition.status` is mapped to FHIR R4 element `Composition.status`.</t>
+Element `Composition.status` has is mapped to FHIR R4 element `Composition.status`, but has no comparisons.</t>
   </si>
   <si>
     <t>Composition.status.value</t>
@@ -984,10 +984,20 @@
     <t>Composition.attester.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Composition.attester.extension:attester</t>
+  </si>
+  <si>
+    <t>attester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Composition.attester|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Composition.attester from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Composition.attester` has is mapped to FHIR R4 element `Composition.attester`, but has no comparisons.</t>
   </si>
   <si>
     <t>Composition.attester.modifierExtension</t>
@@ -1031,31 +1041,6 @@
     <t>implied by .authenticator/.legalAuthenticator</t>
   </si>
   <si>
-    <t>Composition.attester.mode.id</t>
-  </si>
-  <si>
-    <t>Composition.attester.mode.extension</t>
-  </si>
-  <si>
-    <t>Composition.attester.mode.extension:mode</t>
-  </si>
-  <si>
-    <t>mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Composition.attester.mode|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Composition.attester.mode from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `Composition.attester.mode` is mapped to FHIR R4 element `Composition.attester.mode`.</t>
-  </si>
-  <si>
-    <t>Composition.attester.mode.value</t>
-  </si>
-  <si>
     <t>Composition.attester.time</t>
   </si>
   <si>
@@ -1154,6 +1139,12 @@
     <t>Composition.relatesTo.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
     <t>Composition.relatesTo.modifierExtension</t>
   </si>
   <si>
@@ -1236,6 +1227,22 @@
     <t>Composition.event.extension</t>
   </si>
   <si>
+    <t>Composition.event.extension:event</t>
+  </si>
+  <si>
+    <t>event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Composition.event|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Composition.event from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Composition.event` has is mapped to FHIR R4 element `Composition.event`, but has no comparisons.</t>
+  </si>
+  <si>
     <t>Composition.event.modifierExtension</t>
   </si>
   <si>
@@ -1311,6 +1318,23 @@
   </si>
   <si>
     <t>Composition.section.extension</t>
+  </si>
+  <si>
+    <t>Composition.section.extension:section</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Composition.section|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Composition.section from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Composition.section` has is mapped to FHIR R4 element `Composition.section`, but has no comparisons.
+Note available implied context: `Composition.section.section` because `Composition.section.section` is defined as a content reference to `Composition.section`.</t>
   </si>
   <si>
     <t>Composition.section.modifierExtension</t>
@@ -1813,7 +1837,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO68"/>
+  <dimension ref="A1:AO67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1822,7 +1846,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.55078125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="34.19921875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="34.19921875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.0078125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
@@ -5518,7 +5542,7 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>175</v>
+        <v>78</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5540,14 +5564,12 @@
         <v>136</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>312</v>
+        <v>137</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>78</v>
@@ -5584,16 +5606,14 @@
         <v>78</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="AC32" s="2"/>
       <c r="AD32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>210</v>
@@ -5614,7 +5634,7 @@
         <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>78</v>
@@ -5628,14 +5648,16 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="C33" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="D33" t="s" s="2">
-        <v>315</v>
+        <v>78</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5648,26 +5670,24 @@
         <v>78</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>136</v>
+        <v>314</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N33" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="M33" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>179</v>
-      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>78</v>
       </c>
@@ -5715,7 +5735,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>318</v>
+        <v>210</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5724,7 +5744,7 @@
         <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>78</v>
+        <v>149</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>142</v>
@@ -5733,7 +5753,7 @@
         <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>78</v>
@@ -5747,43 +5767,45 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>78</v>
+        <v>318</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="M34" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N34" s="2"/>
+      <c r="N34" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O34" t="s" s="2">
-        <v>322</v>
+        <v>179</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>78</v>
@@ -5808,13 +5830,13 @@
         <v>78</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>196</v>
+        <v>78</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>323</v>
+        <v>78</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>324</v>
+        <v>78</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>78</v>
@@ -5832,28 +5854,28 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>325</v>
+        <v>134</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>326</v>
+        <v>78</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>78</v>
@@ -5864,10 +5886,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5875,7 +5897,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>91</v>
@@ -5890,16 +5912,18 @@
         <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>205</v>
+        <v>111</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>206</v>
+        <v>323</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>207</v>
+        <v>324</v>
       </c>
       <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>78</v>
       </c>
@@ -5923,13 +5947,13 @@
         <v>78</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>78</v>
+        <v>196</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>78</v>
+        <v>326</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>78</v>
+        <v>327</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>78</v>
@@ -5947,10 +5971,10 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>208</v>
+        <v>322</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>91</v>
@@ -5959,16 +5983,16 @@
         <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>78</v>
+        <v>328</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>78</v>
+        <v>329</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>78</v>
@@ -5979,10 +6003,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5990,11 +6014,11 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G36" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="H36" t="s" s="2">
         <v>78</v>
       </c>
@@ -6005,16 +6029,18 @@
         <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>136</v>
+        <v>264</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>137</v>
+        <v>331</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>138</v>
+        <v>332</v>
       </c>
       <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>78</v>
       </c>
@@ -6050,38 +6076,40 @@
         <v>78</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AC36" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>210</v>
+        <v>330</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>78</v>
+        <v>334</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>78</v>
+        <v>335</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>78</v>
@@ -6092,20 +6120,18 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>91</v>
@@ -6120,18 +6146,18 @@
         <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>78</v>
       </c>
@@ -6179,42 +6205,42 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>210</v>
+        <v>336</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>149</v>
+        <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>78</v>
+        <v>341</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>78</v>
+        <v>342</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>78</v>
+        <v>343</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6234,19 +6260,23 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>205</v>
+        <v>345</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>217</v>
+        <v>346</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>78</v>
       </c>
@@ -6294,7 +6324,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>218</v>
+        <v>344</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6306,19 +6336,19 @@
         <v>78</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>78</v>
+        <v>350</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>78</v>
+        <v>351</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>78</v>
+        <v>352</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>78</v>
@@ -6326,10 +6356,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6340,7 +6370,7 @@
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>78</v>
@@ -6352,18 +6382,18 @@
         <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>338</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>78</v>
       </c>
@@ -6411,13 +6441,13 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>78</v>
@@ -6429,13 +6459,13 @@
         <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>339</v>
+        <v>357</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>78</v>
+        <v>359</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>78</v>
@@ -6443,10 +6473,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6469,18 +6499,16 @@
         <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>342</v>
+        <v>205</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>344</v>
+        <v>310</v>
       </c>
       <c r="N40" s="2"/>
-      <c r="O40" t="s" s="2">
-        <v>345</v>
-      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>78</v>
       </c>
@@ -6528,7 +6556,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>341</v>
+        <v>208</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6540,41 +6568,41 @@
         <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>346</v>
+        <v>201</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>347</v>
+        <v>78</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>348</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>78</v>
@@ -6583,23 +6611,21 @@
         <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>350</v>
+        <v>136</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>78</v>
       </c>
@@ -6647,31 +6673,31 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>349</v>
+        <v>210</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>355</v>
+        <v>201</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>356</v>
+        <v>78</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>357</v>
+        <v>78</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>78</v>
@@ -6679,14 +6705,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>78</v>
+        <v>318</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6699,24 +6725,26 @@
         <v>78</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>300</v>
+        <v>136</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>359</v>
+        <v>319</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>78</v>
       </c>
@@ -6764,7 +6792,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>358</v>
+        <v>321</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6776,19 +6804,19 @@
         <v>78</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>362</v>
+        <v>134</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>363</v>
+        <v>78</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>364</v>
+        <v>78</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>78</v>
@@ -6807,7 +6835,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>91</v>
@@ -6822,15 +6850,17 @@
         <v>78</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>205</v>
+        <v>111</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>78</v>
@@ -6855,13 +6885,13 @@
         <v>78</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>78</v>
+        <v>196</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>78</v>
+        <v>369</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>78</v>
+        <v>370</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>78</v>
@@ -6879,10 +6909,10 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>208</v>
+        <v>365</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>91</v>
@@ -6891,19 +6921,19 @@
         <v>78</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>201</v>
+        <v>371</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>78</v>
+        <v>372</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>78</v>
+        <v>373</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>78</v>
@@ -6911,21 +6941,21 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>175</v>
+        <v>78</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>78</v>
@@ -6937,17 +6967,15 @@
         <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>136</v>
+        <v>375</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>312</v>
+        <v>376</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>78</v>
@@ -6996,31 +7024,31 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>210</v>
+        <v>374</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>201</v>
+        <v>378</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>78</v>
+        <v>379</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>78</v>
+        <v>380</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>78</v>
@@ -7028,14 +7056,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>315</v>
+        <v>78</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7048,25 +7076,25 @@
         <v>78</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>136</v>
+        <v>300</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>316</v>
+        <v>382</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>317</v>
+        <v>383</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>178</v>
+        <v>384</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>179</v>
+        <v>385</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>78</v>
@@ -7115,7 +7143,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>318</v>
+        <v>381</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7127,19 +7155,19 @@
         <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>134</v>
+        <v>386</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>78</v>
+        <v>387</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>78</v>
+        <v>388</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>78</v>
@@ -7147,10 +7175,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7158,7 +7186,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>91</v>
@@ -7173,17 +7201,15 @@
         <v>78</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>111</v>
+        <v>205</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>369</v>
+        <v>309</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>78</v>
@@ -7208,13 +7234,13 @@
         <v>78</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>196</v>
+        <v>78</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>372</v>
+        <v>78</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>373</v>
+        <v>78</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>78</v>
@@ -7232,10 +7258,10 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>368</v>
+        <v>208</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>91</v>
@@ -7244,19 +7270,19 @@
         <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>374</v>
+        <v>201</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>375</v>
+        <v>78</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>376</v>
+        <v>78</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>78</v>
@@ -7264,10 +7290,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7275,10 +7301,10 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>78</v>
@@ -7290,13 +7316,13 @@
         <v>78</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>378</v>
+        <v>136</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>379</v>
+        <v>137</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>380</v>
+        <v>138</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7335,43 +7361,41 @@
         <v>78</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="AC47" s="2"/>
       <c r="AD47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>377</v>
+        <v>210</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>381</v>
+        <v>78</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>382</v>
+        <v>78</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>383</v>
+        <v>78</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>78</v>
@@ -7379,12 +7403,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="C48" s="2"/>
+        <v>390</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="D48" t="s" s="2">
         <v>78</v>
       </c>
@@ -7402,23 +7428,21 @@
         <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>300</v>
+        <v>393</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>78</v>
       </c>
@@ -7466,7 +7490,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>384</v>
+        <v>210</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7475,22 +7499,22 @@
         <v>80</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>78</v>
+        <v>149</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>389</v>
+        <v>78</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>390</v>
+        <v>78</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>391</v>
+        <v>78</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>78</v>
@@ -7498,42 +7522,46 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>78</v>
+        <v>318</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>205</v>
+        <v>136</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>78</v>
       </c>
@@ -7581,25 +7609,25 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>208</v>
+        <v>321</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>201</v>
+        <v>134</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>78</v>
@@ -7613,14 +7641,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>175</v>
+        <v>78</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7636,19 +7664,19 @@
         <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>136</v>
+        <v>220</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>312</v>
+        <v>398</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>313</v>
+        <v>399</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>178</v>
+        <v>400</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7674,13 +7702,13 @@
         <v>78</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>78</v>
+        <v>237</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>78</v>
+        <v>401</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>78</v>
+        <v>402</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>78</v>
@@ -7698,7 +7726,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>210</v>
+        <v>397</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7710,19 +7738,19 @@
         <v>78</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>78</v>
+        <v>229</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>78</v>
+        <v>403</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>78</v>
@@ -7730,46 +7758,42 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>315</v>
+        <v>78</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>136</v>
+        <v>405</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>316</v>
+        <v>406</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>78</v>
       </c>
@@ -7817,31 +7841,31 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>318</v>
+        <v>404</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>134</v>
+        <v>271</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>78</v>
+        <v>271</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>78</v>
+        <v>408</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>78</v>
@@ -7849,10 +7873,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7875,17 +7899,15 @@
         <v>92</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>398</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>78</v>
@@ -7910,13 +7932,13 @@
         <v>78</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>237</v>
+        <v>78</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>399</v>
+        <v>78</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>400</v>
+        <v>78</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>78</v>
@@ -7934,7 +7956,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -7952,13 +7974,13 @@
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>229</v>
+        <v>412</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>401</v>
+        <v>78</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>78</v>
@@ -7966,10 +7988,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7980,7 +8002,7 @@
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>78</v>
@@ -7989,16 +8011,16 @@
         <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>403</v>
+        <v>300</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8049,31 +8071,31 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>103</v>
+        <v>416</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>271</v>
+        <v>417</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>271</v>
+        <v>418</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>406</v>
+        <v>78</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>78</v>
@@ -8081,10 +8103,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8095,7 +8117,7 @@
         <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>78</v>
@@ -8104,16 +8126,16 @@
         <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>408</v>
+        <v>309</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>409</v>
+        <v>310</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8164,28 +8186,28 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>407</v>
+        <v>208</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>410</v>
+        <v>201</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>78</v>
@@ -8196,10 +8218,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8222,13 +8244,13 @@
         <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>300</v>
+        <v>136</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>412</v>
+        <v>137</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>413</v>
+        <v>138</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8267,19 +8289,17 @@
         <v>78</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="AC55" s="2"/>
       <c r="AD55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>411</v>
+        <v>210</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8291,16 +8311,16 @@
         <v>78</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>414</v>
+        <v>142</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>415</v>
+        <v>78</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>416</v>
+        <v>78</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>78</v>
@@ -8311,12 +8331,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="C56" s="2"/>
+        <v>420</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>422</v>
+      </c>
       <c r="D56" t="s" s="2">
         <v>78</v>
       </c>
@@ -8325,7 +8347,7 @@
         <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>78</v>
@@ -8337,15 +8359,17 @@
         <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>205</v>
+        <v>423</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>309</v>
+        <v>424</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>425</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>78</v>
@@ -8394,25 +8418,25 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>78</v>
+        <v>149</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>78</v>
@@ -8426,14 +8450,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>175</v>
+        <v>318</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8446,24 +8470,26 @@
         <v>78</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K57" t="s" s="2">
         <v>136</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="O57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>78</v>
       </c>
@@ -8511,7 +8537,7 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>210</v>
+        <v>321</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8529,7 +8555,7 @@
         <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>201</v>
+        <v>134</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>78</v>
@@ -8543,45 +8569,45 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>315</v>
+        <v>428</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>136</v>
+        <v>205</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>316</v>
+        <v>429</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>317</v>
+        <v>430</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>178</v>
+        <v>431</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>179</v>
+        <v>432</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>78</v>
@@ -8630,28 +8656,28 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>318</v>
+        <v>427</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>134</v>
+        <v>288</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>78</v>
+        <v>289</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>78</v>
@@ -8662,14 +8688,14 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>421</v>
+        <v>78</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8688,19 +8714,19 @@
         <v>78</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>78</v>
@@ -8725,13 +8751,13 @@
         <v>78</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>78</v>
+        <v>237</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>78</v>
+        <v>438</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>78</v>
+        <v>439</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>78</v>
@@ -8749,7 +8775,7 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -8767,10 +8793,10 @@
         <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>288</v>
+        <v>228</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>289</v>
+        <v>229</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>78</v>
@@ -8781,10 +8807,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8795,7 +8821,7 @@
         <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>78</v>
@@ -8807,19 +8833,17 @@
         <v>78</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>220</v>
+        <v>275</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>429</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>430</v>
+        <v>278</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>78</v>
@@ -8844,13 +8868,13 @@
         <v>78</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>237</v>
+        <v>78</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>431</v>
+        <v>78</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>432</v>
+        <v>78</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>78</v>
@@ -8868,13 +8892,13 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>78</v>
@@ -8886,24 +8910,24 @@
         <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>228</v>
+        <v>280</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>229</v>
+        <v>281</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>78</v>
+        <v>283</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8914,7 +8938,7 @@
         <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>78</v>
@@ -8926,18 +8950,18 @@
         <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>78</v>
       </c>
@@ -8985,13 +9009,13 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>78</v>
@@ -9003,24 +9027,24 @@
         <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>280</v>
+        <v>78</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>281</v>
+        <v>447</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>283</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9043,16 +9067,16 @@
         <v>78</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>244</v>
+        <v>121</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9102,7 +9126,7 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9111,7 +9135,7 @@
         <v>91</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>78</v>
+        <v>452</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>103</v>
@@ -9120,10 +9144,10 @@
         <v>78</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>78</v>
+        <v>453</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>78</v>
@@ -9134,10 +9158,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9160,18 +9184,20 @@
         <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="O63" s="2"/>
+        <v>457</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>458</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>78</v>
       </c>
@@ -9195,13 +9221,13 @@
         <v>78</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>78</v>
+        <v>196</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>78</v>
+        <v>459</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>78</v>
+        <v>460</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>78</v>
@@ -9219,7 +9245,7 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -9228,7 +9254,7 @@
         <v>91</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>445</v>
+        <v>78</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>103</v>
@@ -9237,24 +9263,24 @@
         <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>446</v>
+        <v>201</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>78</v>
+        <v>231</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9277,19 +9303,19 @@
         <v>78</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>111</v>
+        <v>220</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>78</v>
@@ -9314,13 +9340,13 @@
         <v>78</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>196</v>
+        <v>115</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>78</v>
@@ -9338,7 +9364,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9356,7 +9382,7 @@
         <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>201</v>
@@ -9365,15 +9391,15 @@
         <v>78</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>231</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9384,7 +9410,7 @@
         <v>79</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>78</v>
@@ -9396,20 +9422,18 @@
         <v>78</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>459</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>78</v>
       </c>
@@ -9433,13 +9457,13 @@
         <v>78</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>460</v>
+        <v>78</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>461</v>
+        <v>78</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>78</v>
@@ -9457,16 +9481,16 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>78</v>
+        <v>474</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>103</v>
@@ -9475,10 +9499,10 @@
         <v>78</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>201</v>
+        <v>476</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>78</v>
@@ -9489,10 +9513,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9503,7 +9527,7 @@
         <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>78</v>
@@ -9515,18 +9539,20 @@
         <v>78</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>465</v>
+        <v>479</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="O66" s="2"/>
+        <v>480</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>481</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>78</v>
       </c>
@@ -9550,13 +9576,13 @@
         <v>78</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>78</v>
+        <v>482</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>78</v>
+        <v>483</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>78</v>
@@ -9574,16 +9600,16 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>103</v>
@@ -9592,10 +9618,10 @@
         <v>78</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>468</v>
+        <v>484</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>469</v>
+        <v>201</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>78</v>
@@ -9606,10 +9632,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9620,7 +9646,7 @@
         <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>78</v>
@@ -9632,20 +9658,18 @@
         <v>78</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>220</v>
+        <v>81</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>472</v>
+        <v>487</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>474</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>78</v>
       </c>
@@ -9669,13 +9693,13 @@
         <v>78</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>475</v>
+        <v>78</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>476</v>
+        <v>78</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>78</v>
@@ -9693,16 +9717,16 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>103</v>
@@ -9711,132 +9735,15 @@
         <v>78</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>477</v>
+        <v>417</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>201</v>
+        <v>489</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="F68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="O68" s="2"/>
-      <c r="P68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q68" s="2"/>
-      <c r="R68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO68" t="s" s="2">
         <v>78</v>
       </c>
     </row>

--- a/StructureDefinition-profile-Composition.xlsx
+++ b/StructureDefinition-profile-Composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.7678719-06:00</t>
+    <t>2026-02-20T11:59:20.7621009-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Composition|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Composition</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -464,7 +464,7 @@
     <t>url</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Composition.url|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Composition.url}
 </t>
   </si>
   <si>
@@ -487,7 +487,7 @@
     <t>version</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Composition.version|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Composition.version}
 </t>
   </si>
   <si>
@@ -506,7 +506,7 @@
     <t>useContext</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Composition.useContext|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Composition.useContext}
 </t>
   </si>
   <si>
@@ -525,7 +525,7 @@
     <t>name</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Composition.name|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Composition.name}
 </t>
   </si>
   <si>
@@ -544,7 +544,7 @@
     <t>note</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Composition.note|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Composition.note}
 </t>
   </si>
   <si>
@@ -679,7 +679,7 @@
     <t>status</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Composition.status|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Composition.status}
 </t>
   </si>
   <si>
@@ -990,7 +990,7 @@
     <t>attester</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Composition.attester|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Composition.attester}
 </t>
   </si>
   <si>
@@ -1233,7 +1233,7 @@
     <t>event</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Composition.event|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Composition.event}
 </t>
   </si>
   <si>
@@ -1261,7 +1261,7 @@
     <t>This list of codes represents the main clinical acts being documented.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ActCode|3.0.0</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-ActCode</t>
   </si>
   <si>
     <t>DocumentReference.event.code</t>
@@ -1326,7 +1326,7 @@
     <t>section</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Composition.section|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Composition.section}
 </t>
   </si>
   <si>

--- a/StructureDefinition-profile-Composition.xlsx
+++ b/StructureDefinition-profile-Composition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2527" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2564" uniqueCount="483">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.7621009-06:00</t>
+    <t>2026-02-21T13:36:54.1679201-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Composition</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Composition|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -464,7 +464,7 @@
     <t>url</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Composition.url}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Composition.url|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -487,7 +487,7 @@
     <t>version</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Composition.version}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Composition.version|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -506,7 +506,7 @@
     <t>useContext</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Composition.useContext}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Composition.useContext|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -525,7 +525,7 @@
     <t>name</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Composition.name}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Composition.name|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -544,7 +544,7 @@
     <t>note</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Composition.note}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Composition.note|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -679,7 +679,7 @@
     <t>status</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Composition.status}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Composition.status|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -687,7 +687,7 @@
   </si>
   <si>
     <t>Note that the target element context `Composition.status` is a modifier element, so this extension does not need to be defined as a modifier.
-Element `Composition.status` has is mapped to FHIR R4 element `Composition.status`, but has no comparisons.</t>
+Element `Composition.status` is mapped to FHIR R4 element `Composition.status` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Composition.status.value</t>
@@ -984,20 +984,10 @@
     <t>Composition.attester.extension</t>
   </si>
   <si>
-    <t>Composition.attester.extension:attester</t>
-  </si>
-  <si>
-    <t>attester</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Composition.attester}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Composition.attester from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `Composition.attester` has is mapped to FHIR R4 element `Composition.attester`, but has no comparisons.</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Composition.attester.modifierExtension</t>
@@ -1041,6 +1031,31 @@
     <t>implied by .authenticator/.legalAuthenticator</t>
   </si>
   <si>
+    <t>Composition.attester.mode.id</t>
+  </si>
+  <si>
+    <t>Composition.attester.mode.extension</t>
+  </si>
+  <si>
+    <t>Composition.attester.mode.extension:mode</t>
+  </si>
+  <si>
+    <t>mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Composition.attester.mode|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Composition.attester.mode from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Composition.attester.mode` is mapped to FHIR R4 element `Composition.attester.mode` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
+  </si>
+  <si>
+    <t>Composition.attester.mode.value</t>
+  </si>
+  <si>
     <t>Composition.attester.time</t>
   </si>
   <si>
@@ -1139,12 +1154,6 @@
     <t>Composition.relatesTo.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>Composition.relatesTo.modifierExtension</t>
   </si>
   <si>
@@ -1227,22 +1236,6 @@
     <t>Composition.event.extension</t>
   </si>
   <si>
-    <t>Composition.event.extension:event</t>
-  </si>
-  <si>
-    <t>event</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Composition.event}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Composition.event from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `Composition.event` has is mapped to FHIR R4 element `Composition.event`, but has no comparisons.</t>
-  </si>
-  <si>
     <t>Composition.event.modifierExtension</t>
   </si>
   <si>
@@ -1261,7 +1254,7 @@
     <t>This list of codes represents the main clinical acts being documented.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ActCode</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-ActCode|3.0.0</t>
   </si>
   <si>
     <t>DocumentReference.event.code</t>
@@ -1318,23 +1311,6 @@
   </si>
   <si>
     <t>Composition.section.extension</t>
-  </si>
-  <si>
-    <t>Composition.section.extension:section</t>
-  </si>
-  <si>
-    <t>section</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Composition.section}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Composition.section from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `Composition.section` has is mapped to FHIR R4 element `Composition.section`, but has no comparisons.
-Note available implied context: `Composition.section.section` because `Composition.section.section` is defined as a content reference to `Composition.section`.</t>
   </si>
   <si>
     <t>Composition.section.modifierExtension</t>
@@ -1837,7 +1813,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO67"/>
+  <dimension ref="A1:AO68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1846,7 +1822,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="34.19921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.55078125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="34.19921875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.0078125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
@@ -5542,7 +5518,7 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5564,12 +5540,14 @@
         <v>136</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>137</v>
+        <v>312</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>78</v>
@@ -5606,14 +5584,16 @@
         <v>78</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AC32" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>210</v>
@@ -5634,7 +5614,7 @@
         <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>78</v>
@@ -5648,16 +5628,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>78</v>
+        <v>315</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5670,24 +5648,26 @@
         <v>78</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>314</v>
+        <v>136</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>78</v>
       </c>
@@ -5735,7 +5715,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>210</v>
+        <v>318</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5744,7 +5724,7 @@
         <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>149</v>
+        <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>142</v>
@@ -5753,7 +5733,7 @@
         <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>78</v>
@@ -5767,45 +5747,43 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>318</v>
+        <v>78</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>179</v>
+        <v>322</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>78</v>
@@ -5830,13 +5808,13 @@
         <v>78</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>78</v>
+        <v>196</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>78</v>
+        <v>323</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>78</v>
+        <v>324</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>78</v>
@@ -5854,28 +5832,28 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>134</v>
+        <v>325</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>78</v>
+        <v>326</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>78</v>
@@ -5886,10 +5864,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5897,7 +5875,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>91</v>
@@ -5912,18 +5890,16 @@
         <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>111</v>
+        <v>205</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>323</v>
+        <v>206</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>324</v>
+        <v>207</v>
       </c>
       <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>325</v>
-      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>78</v>
       </c>
@@ -5947,13 +5923,13 @@
         <v>78</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>196</v>
+        <v>78</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>326</v>
+        <v>78</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>327</v>
+        <v>78</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>78</v>
@@ -5971,10 +5947,10 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>322</v>
+        <v>208</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>91</v>
@@ -5983,16 +5959,16 @@
         <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>328</v>
+        <v>78</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>329</v>
+        <v>78</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>78</v>
@@ -6003,10 +5979,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6014,10 +5990,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>78</v>
@@ -6029,18 +6005,16 @@
         <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>264</v>
+        <v>136</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>331</v>
+        <v>137</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>332</v>
+        <v>138</v>
       </c>
       <c r="N36" s="2"/>
-      <c r="O36" t="s" s="2">
-        <v>333</v>
-      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>78</v>
       </c>
@@ -6076,40 +6050,38 @@
         <v>78</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="AC36" s="2"/>
       <c r="AD36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>330</v>
+        <v>210</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>334</v>
+        <v>78</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>335</v>
+        <v>78</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>78</v>
@@ -6120,18 +6092,20 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="D37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>91</v>
@@ -6146,18 +6120,18 @@
         <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>340</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>78</v>
       </c>
@@ -6205,42 +6179,42 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>336</v>
+        <v>210</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>78</v>
+        <v>149</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>341</v>
+        <v>78</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>342</v>
+        <v>78</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>343</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6260,23 +6234,19 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>345</v>
+        <v>205</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>346</v>
+        <v>217</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>78</v>
       </c>
@@ -6324,7 +6294,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>344</v>
+        <v>218</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6336,19 +6306,19 @@
         <v>78</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>350</v>
+        <v>78</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>351</v>
+        <v>78</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>352</v>
+        <v>78</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>78</v>
@@ -6356,10 +6326,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6370,7 +6340,7 @@
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>78</v>
@@ -6382,18 +6352,18 @@
         <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>337</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>78</v>
       </c>
@@ -6441,13 +6411,13 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>78</v>
@@ -6459,13 +6429,13 @@
         <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>359</v>
+        <v>78</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>78</v>
@@ -6473,10 +6443,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6499,16 +6469,18 @@
         <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>205</v>
+        <v>342</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>78</v>
       </c>
@@ -6556,7 +6528,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>208</v>
+        <v>341</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6568,41 +6540,41 @@
         <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>201</v>
+        <v>346</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>78</v>
+        <v>347</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>78</v>
+        <v>348</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>175</v>
+        <v>78</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>78</v>
@@ -6611,21 +6583,23 @@
         <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>136</v>
+        <v>350</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="O41" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>78</v>
       </c>
@@ -6673,31 +6647,31 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>210</v>
+        <v>349</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>201</v>
+        <v>355</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>78</v>
+        <v>356</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>78</v>
+        <v>357</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>78</v>
@@ -6705,14 +6679,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>318</v>
+        <v>78</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6725,26 +6699,24 @@
         <v>78</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>136</v>
+        <v>300</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>78</v>
       </c>
@@ -6792,7 +6764,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6804,19 +6776,19 @@
         <v>78</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>134</v>
+        <v>362</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>78</v>
+        <v>363</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>78</v>
+        <v>364</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>78</v>
@@ -6835,7 +6807,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>91</v>
@@ -6850,17 +6822,15 @@
         <v>78</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>111</v>
+        <v>205</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>366</v>
+        <v>309</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>368</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>78</v>
@@ -6885,13 +6855,13 @@
         <v>78</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>196</v>
+        <v>78</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>369</v>
+        <v>78</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>370</v>
+        <v>78</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>78</v>
@@ -6909,10 +6879,10 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>365</v>
+        <v>208</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>91</v>
@@ -6921,19 +6891,19 @@
         <v>78</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>371</v>
+        <v>201</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>372</v>
+        <v>78</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>373</v>
+        <v>78</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>78</v>
@@ -6941,21 +6911,21 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>78</v>
@@ -6967,15 +6937,17 @@
         <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>375</v>
+        <v>136</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>376</v>
+        <v>312</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>78</v>
@@ -7024,31 +6996,31 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>374</v>
+        <v>210</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>378</v>
+        <v>201</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>379</v>
+        <v>78</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>380</v>
+        <v>78</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>78</v>
@@ -7056,14 +7028,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>78</v>
+        <v>315</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7076,25 +7048,25 @@
         <v>78</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>300</v>
+        <v>136</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>382</v>
+        <v>316</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>383</v>
+        <v>317</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>384</v>
+        <v>178</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>385</v>
+        <v>179</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>78</v>
@@ -7143,7 +7115,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>381</v>
+        <v>318</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7155,19 +7127,19 @@
         <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>386</v>
+        <v>134</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>387</v>
+        <v>78</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>388</v>
+        <v>78</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>78</v>
@@ -7175,10 +7147,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7186,7 +7158,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>91</v>
@@ -7201,15 +7173,17 @@
         <v>78</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>205</v>
+        <v>111</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>309</v>
+        <v>369</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>78</v>
@@ -7234,13 +7208,13 @@
         <v>78</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>78</v>
+        <v>196</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>78</v>
+        <v>372</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>78</v>
+        <v>373</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>78</v>
@@ -7258,10 +7232,10 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>208</v>
+        <v>368</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>91</v>
@@ -7270,19 +7244,19 @@
         <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>201</v>
+        <v>374</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>78</v>
+        <v>375</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>78</v>
+        <v>376</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>78</v>
@@ -7290,10 +7264,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7301,10 +7275,10 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>78</v>
@@ -7316,13 +7290,13 @@
         <v>78</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>136</v>
+        <v>378</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>137</v>
+        <v>379</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>138</v>
+        <v>380</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7361,41 +7335,43 @@
         <v>78</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AC47" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>210</v>
+        <v>377</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>78</v>
+        <v>381</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>78</v>
+        <v>382</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>78</v>
+        <v>383</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>78</v>
@@ -7403,14 +7379,12 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>392</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
         <v>78</v>
       </c>
@@ -7428,21 +7402,23 @@
         <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>393</v>
+        <v>300</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="O48" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>78</v>
       </c>
@@ -7490,7 +7466,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>210</v>
+        <v>384</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7499,22 +7475,22 @@
         <v>80</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>149</v>
+        <v>78</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>78</v>
+        <v>389</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>78</v>
+        <v>390</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>78</v>
+        <v>391</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>78</v>
@@ -7522,46 +7498,42 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>318</v>
+        <v>78</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>136</v>
+        <v>205</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>78</v>
       </c>
@@ -7609,25 +7581,25 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>321</v>
+        <v>208</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>134</v>
+        <v>201</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>78</v>
@@ -7641,14 +7613,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7664,19 +7636,19 @@
         <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>220</v>
+        <v>136</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>398</v>
+        <v>312</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>399</v>
+        <v>313</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>400</v>
+        <v>178</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7702,13 +7674,13 @@
         <v>78</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>237</v>
+        <v>78</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>401</v>
+        <v>78</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>402</v>
+        <v>78</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>78</v>
@@ -7726,7 +7698,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>397</v>
+        <v>210</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7738,19 +7710,19 @@
         <v>78</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>229</v>
+        <v>78</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>403</v>
+        <v>78</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>78</v>
@@ -7758,42 +7730,46 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>78</v>
+        <v>315</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>405</v>
+        <v>136</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>406</v>
+        <v>316</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>78</v>
       </c>
@@ -7841,31 +7817,31 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>404</v>
+        <v>318</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>271</v>
+        <v>134</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>271</v>
+        <v>78</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>408</v>
+        <v>78</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>78</v>
@@ -7873,10 +7849,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7899,15 +7875,17 @@
         <v>92</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>397</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>78</v>
@@ -7932,13 +7910,13 @@
         <v>78</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>78</v>
+        <v>237</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>78</v>
+        <v>399</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>78</v>
+        <v>400</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>78</v>
@@ -7956,7 +7934,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -7974,13 +7952,13 @@
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>412</v>
+        <v>229</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>78</v>
+        <v>401</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>78</v>
@@ -7988,10 +7966,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8002,7 +7980,7 @@
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>78</v>
@@ -8011,16 +7989,16 @@
         <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>300</v>
+        <v>403</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8071,31 +8049,31 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>416</v>
+        <v>103</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>417</v>
+        <v>271</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>418</v>
+        <v>271</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>78</v>
+        <v>406</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>78</v>
@@ -8103,10 +8081,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8117,7 +8095,7 @@
         <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>78</v>
@@ -8126,16 +8104,16 @@
         <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>309</v>
+        <v>408</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>310</v>
+        <v>409</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8186,28 +8164,28 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>208</v>
+        <v>407</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL54" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>78</v>
@@ -8218,10 +8196,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8244,13 +8222,13 @@
         <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>136</v>
+        <v>300</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>137</v>
+        <v>412</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>138</v>
+        <v>413</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8289,17 +8267,19 @@
         <v>78</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AC55" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>210</v>
+        <v>411</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8311,16 +8291,16 @@
         <v>78</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>142</v>
+        <v>414</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>78</v>
+        <v>415</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>78</v>
+        <v>416</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>78</v>
@@ -8331,14 +8311,12 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>422</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
         <v>78</v>
       </c>
@@ -8347,7 +8325,7 @@
         <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>78</v>
@@ -8359,17 +8337,15 @@
         <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>423</v>
+        <v>205</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>424</v>
+        <v>309</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>425</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>78</v>
@@ -8418,25 +8394,25 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>149</v>
+        <v>78</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>78</v>
@@ -8450,14 +8426,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>318</v>
+        <v>175</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8470,26 +8446,24 @@
         <v>78</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="K57" t="s" s="2">
         <v>136</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="O57" t="s" s="2">
-        <v>179</v>
-      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>78</v>
       </c>
@@ -8537,7 +8511,7 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>321</v>
+        <v>210</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8555,7 +8529,7 @@
         <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>134</v>
+        <v>201</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>78</v>
@@ -8569,45 +8543,45 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>428</v>
+        <v>315</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>205</v>
+        <v>136</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>429</v>
+        <v>316</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>430</v>
+        <v>317</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>431</v>
+        <v>178</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>432</v>
+        <v>179</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>78</v>
@@ -8656,28 +8630,28 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>427</v>
+        <v>318</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>288</v>
+        <v>134</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>289</v>
+        <v>78</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>78</v>
@@ -8688,14 +8662,14 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>78</v>
+        <v>421</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8714,19 +8688,19 @@
         <v>78</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>78</v>
@@ -8751,13 +8725,13 @@
         <v>78</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>237</v>
+        <v>78</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>438</v>
+        <v>78</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>439</v>
+        <v>78</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>78</v>
@@ -8775,7 +8749,7 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -8793,10 +8767,10 @@
         <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>228</v>
+        <v>288</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>229</v>
+        <v>289</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>78</v>
@@ -8807,10 +8781,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8821,7 +8795,7 @@
         <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>78</v>
@@ -8833,17 +8807,19 @@
         <v>78</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>275</v>
+        <v>220</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>428</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="O60" t="s" s="2">
-        <v>278</v>
+        <v>430</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>78</v>
@@ -8868,13 +8844,13 @@
         <v>78</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>78</v>
+        <v>237</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>78</v>
+        <v>431</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>78</v>
+        <v>432</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>78</v>
@@ -8892,13 +8868,13 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>78</v>
@@ -8910,24 +8886,24 @@
         <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>280</v>
+        <v>228</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>281</v>
+        <v>229</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>283</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8938,7 +8914,7 @@
         <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>78</v>
@@ -8950,18 +8926,18 @@
         <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="O61" s="2"/>
+        <v>435</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>78</v>
       </c>
@@ -9009,13 +8985,13 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>78</v>
@@ -9027,24 +9003,24 @@
         <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>78</v>
+        <v>280</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>447</v>
+        <v>281</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>78</v>
+        <v>283</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9067,16 +9043,16 @@
         <v>78</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>121</v>
+        <v>244</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9126,7 +9102,7 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9135,7 +9111,7 @@
         <v>91</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>452</v>
+        <v>78</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>103</v>
@@ -9144,10 +9120,10 @@
         <v>78</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>453</v>
+        <v>78</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>78</v>
@@ -9158,10 +9134,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9184,20 +9160,18 @@
         <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>458</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>78</v>
       </c>
@@ -9221,13 +9195,13 @@
         <v>78</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>196</v>
+        <v>78</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>459</v>
+        <v>78</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>460</v>
+        <v>78</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>78</v>
@@ -9245,7 +9219,7 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -9254,7 +9228,7 @@
         <v>91</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>78</v>
+        <v>445</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>103</v>
@@ -9263,24 +9237,24 @@
         <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>201</v>
+        <v>446</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>231</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9303,19 +9277,19 @@
         <v>78</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>220</v>
+        <v>111</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>78</v>
@@ -9340,13 +9314,13 @@
         <v>78</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>115</v>
+        <v>196</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>78</v>
@@ -9364,7 +9338,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9382,7 +9356,7 @@
         <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>201</v>
@@ -9391,15 +9365,15 @@
         <v>78</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>78</v>
+        <v>231</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9410,7 +9384,7 @@
         <v>79</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>78</v>
@@ -9422,18 +9396,20 @@
         <v>78</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="O65" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>78</v>
       </c>
@@ -9457,13 +9433,13 @@
         <v>78</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>78</v>
+        <v>460</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>78</v>
+        <v>461</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>78</v>
@@ -9481,16 +9457,16 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>474</v>
+        <v>78</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>103</v>
@@ -9499,10 +9475,10 @@
         <v>78</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>476</v>
+        <v>201</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>78</v>
@@ -9513,10 +9489,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9527,7 +9503,7 @@
         <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>78</v>
@@ -9539,20 +9515,18 @@
         <v>78</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>481</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>78</v>
       </c>
@@ -9576,13 +9550,13 @@
         <v>78</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>482</v>
+        <v>78</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>483</v>
+        <v>78</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>78</v>
@@ -9600,16 +9574,16 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>103</v>
@@ -9618,10 +9592,10 @@
         <v>78</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>201</v>
+        <v>469</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>78</v>
@@ -9632,10 +9606,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9646,7 +9620,7 @@
         <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>78</v>
@@ -9658,18 +9632,20 @@
         <v>78</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>81</v>
+        <v>220</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="O67" s="2"/>
+        <v>473</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>474</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>78</v>
       </c>
@@ -9693,13 +9669,13 @@
         <v>78</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>78</v>
+        <v>475</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>78</v>
+        <v>476</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>78</v>
@@ -9717,16 +9693,16 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>103</v>
@@ -9735,15 +9711,132 @@
         <v>78</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>417</v>
+        <v>477</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>489</v>
+        <v>201</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO67" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="O68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO68" t="s" s="2">
         <v>78</v>
       </c>
     </row>
